--- a/zutnlp-cv/doc/log_201608040109_zhanghao.xlsx
+++ b/zutnlp-cv/doc/log_201608040109_zhanghao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,38 @@
   </si>
   <si>
     <t xml:space="preserve">正常进行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置node的环境，学习相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习thymeleaf，学习webpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -666,6 +698,15 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="28.15" customHeight="1">
       <c r="A8" s="1">
@@ -674,6 +715,15 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="27" customHeight="1">
       <c r="A9" s="1">
@@ -681,6 +731,15 @@
       </c>
       <c r="B9" t="s">
         <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.15" customHeight="1">

--- a/zutnlp-cv/doc/log_201608040109_zhanghao.xlsx
+++ b/zutnlp-cv/doc/log_201608040109_zhanghao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>大致了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行更深层次的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -748,6 +760,15 @@
       </c>
       <c r="B10" t="s">
         <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
